--- a/data/trans_dic/P45C_R1-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R1-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,5</t>
+          <t>0,0; 7,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 8,25</t>
+          <t>0,76; 8,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,63</t>
+          <t>0,0; 6,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,66</t>
+          <t>0,0; 5,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,83</t>
+          <t>0,0; 4,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,09</t>
+          <t>0,0; 4,12</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,87; 5,6</t>
+          <t>0,83; 5,3</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,25</t>
+          <t>0,39; 3,55</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,82</t>
+          <t>0,0; 0,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,06</t>
+          <t>0,81; 2,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,24</t>
+          <t>0,34; 2,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,95</t>
+          <t>0,0; 1,01</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,7</t>
+          <t>1,17; 3,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,98</t>
+          <t>0,34; 2,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,6</t>
+          <t>0,0; 0,57</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 2,89</t>
+          <t>1,15; 2,95</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 1,71</t>
+          <t>0,48; 1,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,45</t>
+          <t>0,74; 2,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,49</t>
+          <t>0,75; 2,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,81</t>
+          <t>0,25; 1,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 2,56</t>
+          <t>0,86; 2,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,41</t>
+          <t>0,83; 2,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 2,15</t>
+          <t>0,63; 2,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,18</t>
+          <t>0,99; 2,13</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,02</t>
+          <t>0,93; 2,07</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 1,58</t>
+          <t>0,6; 1,54</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,7; 4,32</t>
+          <t>1,72; 4,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,41</t>
+          <t>0,78; 2,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,12</t>
+          <t>0,77; 3,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,56; 4,14</t>
+          <t>1,44; 3,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,67</t>
+          <t>0,3; 1,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,36</t>
+          <t>0,65; 2,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,96; 3,84</t>
+          <t>1,86; 3,78</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 1,72</t>
+          <t>0,65; 1,69</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,26</t>
+          <t>0,92; 2,25</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,08</t>
+          <t>1,21; 3,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,42</t>
+          <t>0,3; 1,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,15</t>
+          <t>0,19; 1,13</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,3</t>
+          <t>1,43; 3,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,25; 3,01</t>
+          <t>1,3; 3,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,62</t>
+          <t>0,41; 1,66</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,53; 2,84</t>
+          <t>1,57; 2,91</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,02</t>
+          <t>0,96; 2,03</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,16</t>
+          <t>0,42; 1,14</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,21</t>
+          <t>1,27; 2,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 1,76</t>
+          <t>0,93; 1,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,62; 1,3</t>
+          <t>0,65; 1,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,29; 2,17</t>
+          <t>1,26; 2,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,08</t>
+          <t>1,19; 2,09</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,81; 1,53</t>
+          <t>0,79; 1,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,38; 2,07</t>
+          <t>1,38; 2,04</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,19; 1,78</t>
+          <t>1,18; 1,78</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,82; 1,34</t>
+          <t>0,78; 1,29</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/P45C_R1-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R1-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,81</t>
+          <t>0,0; 9,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 8,96</t>
+          <t>0,75; 8,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,02</t>
+          <t>0,0; 4,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,95</t>
+          <t>0,0; 6,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,82</t>
+          <t>0,0; 5,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,12</t>
+          <t>0,0; 4,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,83; 5,3</t>
+          <t>0,79; 5,83</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,55</t>
+          <t>0,38; 3,52</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -869,57 +869,57 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,95</t>
+          <t>0,83; 3,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,0</t>
+          <t>0,36; 2,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 2,53</t>
+          <t>0,49; 2,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,01</t>
+          <t>0,0; 0,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,94</t>
+          <t>1,16; 3,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,09</t>
+          <t>0,34; 2,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,35; 3,83</t>
+          <t>1,25; 3,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,57</t>
+          <t>0,0; 0,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,95</t>
+          <t>1,24; 3,0</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 1,62</t>
+          <t>0,52; 1,68</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,07; 2,69</t>
+          <t>1,13; 2,62</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 2,31</t>
+          <t>0,81; 2,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,54</t>
+          <t>0,73; 2,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,54</t>
+          <t>0,28; 1,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,06; 3,24</t>
+          <t>0,96; 3,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,5</t>
+          <t>0,87; 2,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,29</t>
+          <t>0,89; 2,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,2</t>
+          <t>0,67; 2,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,52</t>
+          <t>1,03; 2,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,13</t>
+          <t>0,97; 2,17</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,93; 2,07</t>
+          <t>0,98; 2,06</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,6; 1,54</t>
+          <t>0,59; 1,55</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 2,42</t>
+          <t>1,18; 2,44</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,72; 4,66</t>
+          <t>1,61; 4,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,58</t>
+          <t>0,68; 2,41</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,04</t>
+          <t>0,8; 2,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,88</t>
+          <t>1,09; 4,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,92</t>
+          <t>1,48; 3,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,72</t>
+          <t>0,29; 1,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 2,28</t>
+          <t>0,66; 2,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,43</t>
+          <t>1,12; 3,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,86; 3,78</t>
+          <t>1,87; 3,72</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,65; 1,69</t>
+          <t>0,66; 1,69</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,25</t>
+          <t>0,9; 2,25</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,39; 3,21</t>
+          <t>1,39; 3,23</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,19</t>
+          <t>1,26; 3,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,4</t>
+          <t>0,3; 1,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,13</t>
+          <t>0,27; 1,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,85</t>
+          <t>1,02; 2,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,3</t>
+          <t>1,44; 3,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,3; 3,11</t>
+          <t>1,24; 3,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,66</t>
+          <t>0,4; 1,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,15</t>
+          <t>0,3; 1,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,57; 2,91</t>
+          <t>1,6; 2,95</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,03</t>
+          <t>0,96; 1,98</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,42; 1,14</t>
+          <t>0,43; 1,21</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 1,67</t>
+          <t>0,76; 1,66</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,24</t>
+          <t>1,27; 2,22</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,93; 1,74</t>
+          <t>0,94; 1,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,65; 1,31</t>
+          <t>0,59; 1,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,33</t>
+          <t>1,24; 2,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,26; 2,19</t>
+          <t>1,26; 2,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,09</t>
+          <t>1,18; 2,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,54</t>
+          <t>0,79; 1,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,89</t>
+          <t>1,12; 1,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,38; 2,04</t>
+          <t>1,39; 2,05</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>1,18; 1,78</t>
+          <t>1,14; 1,75</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,78; 1,29</t>
+          <t>0,77; 1,29</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>1,29; 1,97</t>
+          <t>1,29; 1,92</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P45C_R1-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R1-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,48%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,0</t>
+          <t>0,0; 1,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,75; 8,34</t>
+          <t>1,09; 3,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,28</t>
+          <t>0,3; 1,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,62</t>
+          <t>0,46; 2,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>0,0; 0,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,15</t>
+          <t>1,15; 3,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,56</t>
+          <t>0,41; 2,03</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,79</t>
+          <t>1,04; 3,06</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,11</t>
+          <t>0,07; 0,9</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 5,83</t>
+          <t>1,37; 2,91</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,52</t>
+          <t>0,61; 1,65</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>0,91; 2,28</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>1,25%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1,67%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1,5%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1,41%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>0,99%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>2,22%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,17%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>1,9%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>0,96%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>1,58%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,83</t>
+          <t>0,81; 2,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,83; 3,09</t>
+          <t>0,73; 2,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 2,17</t>
+          <t>0,28; 1,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,67</t>
+          <t>0,68; 2,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,68</t>
+          <t>0,87; 2,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,85</t>
+          <t>0,89; 2,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,34; 2,16</t>
+          <t>0,67; 2,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 3,7</t>
+          <t>1,04; 2,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,58</t>
+          <t>0,97; 2,17</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,0</t>
+          <t>0,98; 2,06</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,68</t>
+          <t>0,59; 1,55</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,62</t>
+          <t>0,98; 2,3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,76%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>0,78%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1,31%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1,77%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2,68%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,08%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>1,46%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>1,25%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>1,64%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>1,5%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>1,41%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>0,99%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,93%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,59</t>
+          <t>1,61; 4,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,31</t>
+          <t>0,68; 2,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,54</t>
+          <t>0,8; 2,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,0</t>
+          <t>1,07; 3,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 2,49</t>
+          <t>1,48; 3,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,48</t>
+          <t>0,29; 1,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,16</t>
+          <t>0,66; 2,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 2,6</t>
+          <t>0,73; 3,01</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,17</t>
+          <t>1,87; 3,72</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,06</t>
+          <t>0,66; 1,69</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 1,55</t>
+          <t>0,9; 2,25</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 2,44</t>
+          <t>1,15; 2,98</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,22%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>1,09%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,41</t>
+          <t>1,26; 3,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,41</t>
+          <t>0,3; 1,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,95</t>
+          <t>0,27; 1,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 4,03</t>
+          <t>0,99; 2,7</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,85</t>
+          <t>1,44; 3,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,58</t>
+          <t>1,24; 3,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,33</t>
+          <t>0,4; 1,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,48</t>
+          <t>0,29; 1,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,87; 3,72</t>
+          <t>1,6; 2,95</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 1,69</t>
+          <t>0,96; 1,98</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,25</t>
+          <t>0,43; 1,21</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,39; 3,23</t>
+          <t>0,73; 1,62</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>1,5%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,3</t>
+          <t>1,27; 2,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,42</t>
+          <t>0,94; 1,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,17</t>
+          <t>0,59; 1,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,79</t>
+          <t>1,08; 2,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,24</t>
+          <t>1,26; 2,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,09</t>
+          <t>1,18; 2,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,5</t>
+          <t>0,79; 1,49</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,17</t>
+          <t>1,08; 1,93</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,6; 2,95</t>
+          <t>1,39; 2,05</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,96; 1,98</t>
+          <t>1,14; 1,75</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,21</t>
+          <t>0,77; 1,29</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,76; 1,66</t>
+          <t>1,2; 1,87</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,69%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>1,29%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,92%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,71%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>1,67%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>1,6%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>1,12%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>1,47%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>1,68%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>1,45%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>1,02%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>1,58%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>1,27; 2,22</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,94; 1,76</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,59; 1,29</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>1,24; 2,26</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>1,26; 2,14</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>1,18; 2,06</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0,79; 1,49</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>1,12; 1,98</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>1,39; 2,05</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>1,14; 1,75</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>0,77; 1,29</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>1,29; 1,92</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P45C_R1-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P45C_R1-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,49</t>
+          <t>0,0; 1,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,19</t>
+          <t>1,01; 3,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,99</t>
+          <t>0,43; 1,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,21</t>
+          <t>0,41; 2,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,71</t>
+          <t>0,0; 0,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,47</t>
+          <t>1,12; 3,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 2,03</t>
+          <t>0,54; 2,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,06</t>
+          <t>1,02; 3,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,07; 0,9</t>
+          <t>0,07; 0,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,37; 2,91</t>
+          <t>1,37; 3,02</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,61; 1,65</t>
+          <t>0,59; 1,68</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,28</t>
+          <t>0,93; 2,32</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,59</t>
+          <t>0,81; 2,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,31</t>
+          <t>0,73; 2,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,54</t>
+          <t>0,3; 1,54</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,69</t>
+          <t>0,66; 2,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 2,49</t>
+          <t>0,88; 2,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 2,48</t>
+          <t>0,84; 2,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,16</t>
+          <t>0,64; 2,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 2,67</t>
+          <t>0,97; 2,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,97; 2,17</t>
+          <t>1,0; 2,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,06</t>
+          <t>0,94; 2,11</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 1,55</t>
+          <t>0,57; 1,53</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,98; 2,3</t>
+          <t>1,04; 2,31</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,41</t>
+          <t>1,63; 4,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,41</t>
+          <t>0,69; 2,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,95</t>
+          <t>0,8; 2,93</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,99</t>
+          <t>1,09; 3,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 3,85</t>
+          <t>1,5; 4,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,58</t>
+          <t>0,27; 1,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,33</t>
+          <t>0,66; 2,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,73; 3,01</t>
+          <t>0,7; 3,0</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 3,72</t>
+          <t>1,85; 3,67</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 1,69</t>
+          <t>0,64; 1,74</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,25</t>
+          <t>0,88; 2,2</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,15; 2,98</t>
+          <t>1,18; 2,96</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 3,3</t>
+          <t>1,29; 3,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,42</t>
+          <t>0,3; 1,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,17</t>
+          <t>0,19; 1,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,7</t>
+          <t>0,98; 2,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,24</t>
+          <t>1,44; 3,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,24; 3,09</t>
+          <t>1,26; 3,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,5</t>
+          <t>0,39; 1,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,12</t>
+          <t>0,28; 1,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,6; 2,95</t>
+          <t>1,56; 2,93</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,96; 1,98</t>
+          <t>0,96; 2,02</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,21</t>
+          <t>0,43; 1,17</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,73; 1,62</t>
+          <t>0,72; 1,62</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,22</t>
+          <t>1,26; 2,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,94; 1,76</t>
+          <t>0,96; 1,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,59; 1,29</t>
+          <t>0,61; 1,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,08; 2,18</t>
+          <t>1,12; 2,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,26; 2,14</t>
+          <t>1,25; 2,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,18; 2,06</t>
+          <t>1,21; 2,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,79; 1,49</t>
+          <t>0,81; 1,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,08; 1,93</t>
+          <t>1,08; 1,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,05</t>
+          <t>1,4; 2,05</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,14; 1,75</t>
+          <t>1,19; 1,76</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,77; 1,29</t>
+          <t>0,79; 1,31</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,2; 1,87</t>
+          <t>1,2; 1,89</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que han sufrido a lo largo de este ultimo año alguna quemadura solar con ampollas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2826</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>13175</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6191</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>6567</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>965</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>14367</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>7293</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>12724</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3791</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>27542</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>13485</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>19291</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 10480</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7056; 22548</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2871; 12588</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2562; 14144</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4809</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>7767; 23323</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3616; 13968</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6909; 21836</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>947; 11023</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>19134; 42076</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>7927; 22507</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>12201; 30291</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>13915</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>13800</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>7278</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>18065</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>14915</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>14878</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>12911</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>15977</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>28830</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>28678</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>20188</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>34042</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>7807; 24279</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>7321; 23441</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3036; 15615</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7835; 30970</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>8526; 25033</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>8621; 24562</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6655; 22510</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>9267; 23461</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>19156; 41013</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>19027; 42894</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>11700; 31286</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>22249; 49648</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>18918</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>10330</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>12083</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>15087</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>17496</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6014</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>10166</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>16468</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>36414</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>16344</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>22249</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>31554</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>11060; 29948</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5192; 18099</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5959; 21940</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7652; 27777</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10247; 27892</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2069; 12334</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5140; 18345</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6532; 28001</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>25094; 49854</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>9735; 26337</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>13427; 33544</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>19253; 48469</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>19482</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>6707</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5252</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>15570</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>22976</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>21001</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>9153</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>6527</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>42458</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>27708</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>14405</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>22097</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>12148; 29695</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2786; 12666</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1787; 10714</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>9054; 25159</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>14910; 34343</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>13056; 31762</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>4048; 16704</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3012; 12005</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>30885; 57954</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>19013; 39988</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>8419; 23095</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>14572; 32680</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>55141</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>44012</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>30803</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>55289</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>56351</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>56260</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>39523</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>51696</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>111492</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>100272</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>70326</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>106985</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>41158; 71594</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>32497; 59551</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>20462; 44332</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>38688; 74710</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>42023; 71951</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>42517; 72634</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>28480; 54585</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>39338; 67432</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>92764; 135990</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>82646; 121592</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>54591; 89984</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>85001; 134634</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>